--- a/Results/甜玉米非化學藥劑商品關聯.xlsx
+++ b/Results/甜玉米非化學藥劑商品關聯.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,17 +559,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>庫斯蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大寶天機</t>
+          <t>住友福祿寶</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>台灣住友</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>庫斯蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>殊立菌</t>
+          <t>高招</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>興農</t>
+          <t>嘉農企業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -613,17 +613,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>庫斯蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>速利殺</t>
+          <t>大寶</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>安農</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -640,17 +640,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>庫斯蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>尚賜配</t>
+          <t>速利殺</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>安農</t>
+          <t>安農股份有限公司</t>
         </is>
       </c>
     </row>
@@ -667,17 +667,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>庫斯蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>速力寶</t>
+          <t>大寶天機</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>安農</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -694,17 +694,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>庫斯蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>獨霸</t>
+          <t>見達利</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>嘉農</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>庫斯蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>高招</t>
+          <t>加倍強</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>嘉農</t>
+          <t>臺灣花卉生物技術股份有限公司</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>庫斯蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>見招</t>
+          <t>松蘇力菌</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>嘉農</t>
+          <t>松樹國際有限公司</t>
         </is>
       </c>
     </row>
@@ -775,17 +775,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>庫斯蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>金太寶</t>
+          <t>新大寶</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>台灣住友</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>庫斯蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>新大寶</t>
+          <t>蘇滅寶</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>台灣住友</t>
+          <t>臺益工業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鮎澤蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>見達利</t>
+          <t>力寶</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>台灣住友</t>
+          <t>生力化學工業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鮎澤蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>愛吃蟲</t>
+          <t>菜寶</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>台灣住友</t>
+          <t>中華民國農會附設各級農會農化廠</t>
         </is>
       </c>
     </row>
@@ -883,17 +883,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鮎澤蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>福祿寶</t>
+          <t>嘉農企業股份有限公司的蘇力菌</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>台灣住友</t>
+          <t>嘉農企業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -910,17 +910,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鮎澤蘇力菌</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>美國-雙倍讚</t>
+          <t>惠光寶</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>優必樂</t>
+          <t>惠光股份有限公司</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>性費洛蒙</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一枝春</t>
+          <t>貴寶</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>中華民國農會附設各級農會</t>
+          <t>聯利農業科技股份有限公司</t>
         </is>
       </c>
     </row>
@@ -964,17 +964,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>性費洛蒙</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>日夜春</t>
+          <t>尚賜配</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>中華民國農會附設各級農會</t>
+          <t>安農股份有限公司</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>苦參鹼</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>綠寶克蟲</t>
+          <t>獨霸</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>綠寶生物科技</t>
+          <t>嘉農企業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1018,17 +1018,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>病毒</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>奇招</t>
+          <t>加倍強</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>嘉農</t>
+          <t>優必樂有限公司</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>蘇滅寶</t>
+          <t>愛吃蟲</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>臺益工業</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1077,12 +1077,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>惠光寶</t>
+          <t>殊立菌</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>惠光(股)</t>
+          <t>興農股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>光華化學</t>
+          <t>光華化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>菜寶</t>
+          <t>見招</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>中華民國農會附設各級農會</t>
+          <t>嘉農企業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1148,22 +1148,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>蘇力菌</t>
+          <t>庫斯蘇力菌</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>貴寶</t>
+          <t>大寶天機</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>聯利農業科技</t>
+          <t>台灣住友</t>
         </is>
       </c>
     </row>
@@ -1175,22 +1175,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>蘇力菌</t>
+          <t>庫斯蘇力菌</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>松蘇力菌</t>
+          <t>殊立菌</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>松樹國際</t>
+          <t>興農</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大寶天機</t>
+          <t>速利殺</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>台灣住友</t>
+          <t>安農</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>殊立菌</t>
+          <t>尚賜配</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>興農</t>
+          <t>安農</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>速利殺</t>
+          <t>速力寶</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>尚賜配</t>
+          <t>獨霸</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>安農</t>
+          <t>嘉農</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>速力寶</t>
+          <t>高招</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>安農</t>
+          <t>嘉農</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>獨霸</t>
+          <t>見招</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>高招</t>
+          <t>金太寶</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>嘉農</t>
+          <t>台灣住友</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>見招</t>
+          <t>新大寶</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>嘉農</t>
+          <t>台灣住友</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1428,12 +1428,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>金太寶</t>
+          <t>速力寶</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>台灣住友</t>
+          <t>福壽實業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>玉米螟</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>新大寶</t>
+          <t>金太寶</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>台灣住友</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1472,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>斜紋夜蛾</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>蘇力菌</t>
+          <t>鮎澤蘇力菌</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>蘇滅寶</t>
+          <t>見達利</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>臺益工業</t>
+          <t>台灣住友</t>
         </is>
       </c>
     </row>
@@ -1499,22 +1499,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>斜紋夜蛾</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>蘇力菌</t>
+          <t>鮎澤蘇力菌</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>惠光寶</t>
+          <t>愛吃蟲</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>惠光(股)</t>
+          <t>台灣住友</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>斜紋夜蛾</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>蘇力菌</t>
+          <t>鮎澤蘇力菌</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>舒立旺</t>
+          <t>福祿寶</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>光華化學</t>
+          <t>台灣住友</t>
         </is>
       </c>
     </row>
@@ -1553,22 +1553,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>斜紋夜蛾</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>蘇力菌</t>
+          <t>鮎澤蘇力菌</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>菜寶</t>
+          <t>美國-雙倍讚</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>中華民國農會附設各級農會</t>
+          <t>優必樂</t>
         </is>
       </c>
     </row>
@@ -1580,22 +1580,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>斜紋夜蛾</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>蘇力菌</t>
+          <t>性費洛蒙</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>貴寶</t>
+          <t>一枝春</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>聯利農業科技</t>
+          <t>中華民國農會附設各級農會</t>
         </is>
       </c>
     </row>
@@ -1607,22 +1607,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>斜紋夜蛾</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>蘇力菌</t>
+          <t>性費洛蒙</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>松蘇力菌</t>
+          <t>日夜春</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>松樹國際</t>
+          <t>中華民國農會附設各級農會</t>
         </is>
       </c>
     </row>
@@ -1634,22 +1634,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>斜紋夜蛾</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>性費洛蒙</t>
+          <t>苦參鹼</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>一枝春</t>
+          <t>綠寶克蟲</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>中華民國農會附設各級農會</t>
+          <t>綠寶生物科技</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>斜紋夜蛾</t>
+          <t>甜菜夜蛾</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>性費洛蒙</t>
+          <t>病毒</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>日夜春</t>
+          <t>奇招</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>中華民國農會附設各級農會</t>
+          <t>嘉農</t>
         </is>
       </c>
     </row>
@@ -1688,22 +1688,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>斜紋夜蛾</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>苦參鹼</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>綠寶克蟲</t>
+          <t>蘇滅寶</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>綠寶生物科技</t>
+          <t>臺益工業</t>
         </is>
       </c>
     </row>
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>玉米穗蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>苦參鹼</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>綠寶克蟲</t>
+          <t>惠光寶</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>綠寶生物科技</t>
+          <t>惠光(股)</t>
         </is>
       </c>
     </row>
@@ -1742,22 +1742,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>苦參鹼</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>綠寶克蟲</t>
+          <t>舒立旺</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>綠寶生物科技</t>
+          <t>光華化學</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>玉米穗蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1779,12 +1779,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>蘇滅寶</t>
+          <t>菜寶</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>臺益工業</t>
+          <t>中華民國農會附設各級農會</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>玉米穗蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>惠光寶</t>
+          <t>貴寶</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>惠光(股)</t>
+          <t>聯利農業科技</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>玉米穗蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>舒立旺</t>
+          <t>松蘇力菌</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>光華化學</t>
+          <t>松樹國際</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>玉米穗蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>菜寶</t>
+          <t>住友福祿寶</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>中華民國農會附設各級農會</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>玉米穗蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>貴寶</t>
+          <t>高招</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>聯利農業科技</t>
+          <t>嘉農企業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>玉米穗蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>松蘇力菌</t>
+          <t>大寶</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>松樹國際</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1931,22 +1931,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>辣椒萃取物、植物油類(大蒜油)</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>踹來汐（Capsialil）</t>
+          <t>速利殺</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>威群國際有限公司</t>
+          <t>安農股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1958,22 +1958,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>大蒜萃取液</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>歐麥克斯線蟲防制劑</t>
+          <t>大寶天機</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>六和化工股份有限公司</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>驅百蟲苦楝油</t>
+          <t>見達利</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>良農現代化農業科技股份有限公司</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2012,22 +2012,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>巨聖 GTS</t>
+          <t>加倍強</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>巨聖油脂化學股份有限公司</t>
+          <t>臺灣花卉生物技術股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2039,22 +2039,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>苦楝油 (PARKER NEEM OIL)</t>
+          <t>松蘇力菌</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>糧德農業有限公司</t>
+          <t>松樹國際有限公司</t>
         </is>
       </c>
     </row>
@@ -2066,22 +2066,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>祥好苦楝油</t>
+          <t>新大寶</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>地球村生態有限公司</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2093,22 +2093,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>綠佑精（苦楝油）</t>
+          <t>蘇滅寶</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>名方有限公司</t>
+          <t>臺益工業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>好力富苦楝油</t>
+          <t>力寶</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>達爾文國際生物科技股份有限公司</t>
+          <t>生力化學工業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2147,22 +2147,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>卡放心（苦楝油）</t>
+          <t>菜寶</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>台灣科研生物技術有限公司</t>
+          <t>中華民國農會附設各級農會農化廠</t>
         </is>
       </c>
     </row>
@@ -2174,22 +2174,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>源動綠（苦楝油）</t>
+          <t>嘉農企業股份有限公司的蘇力菌</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>大益農業科技股份有限公司</t>
+          <t>嘉農企業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2201,22 +2201,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>農友苦楝油</t>
+          <t>惠光寶</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>農友種苗股份有限公司</t>
+          <t>惠光股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2228,22 +2228,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>帕克百寶水溶性苦楝油</t>
+          <t>貴寶</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>荷翔國際有限公司</t>
+          <t>聯利農業科技股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2255,22 +2255,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>水溶性苦楝油</t>
+          <t>尚賜配</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>綠地園生物科技有限公司</t>
+          <t>安農股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2282,22 +2282,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>有夠讚（苦楝油）乳劑</t>
+          <t>獨霸</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>環宇新境有限公司</t>
+          <t>嘉農企業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2309,22 +2309,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>滿歌頌（苦楝油）乳劑</t>
+          <t>加倍強</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>環宇新境有限公司</t>
+          <t>優必樂有限公司</t>
         </is>
       </c>
     </row>
@@ -2336,22 +2336,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>屠蟲刀</t>
+          <t>愛吃蟲</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>良農現代化農業科技股份有限公司</t>
+          <t>臺灣住友化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2363,22 +2363,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>農家順-青薌苦楝油</t>
+          <t>殊立菌</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>樂田農業有限公司</t>
+          <t>興農股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2390,22 +2390,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>金力駭</t>
+          <t>舒立旺</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>樂田農業有限公司</t>
+          <t>光華化學股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2417,22 +2417,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>蘇力菌</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>季新牌乳化苦楝油</t>
+          <t>見招</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>季新企業有限公司</t>
+          <t>嘉農企業股份有限公司</t>
         </is>
       </c>
     </row>
@@ -2444,22 +2444,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>庫斯蘇力菌</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>禪益苦楝油 92</t>
+          <t>大寶天機</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>禪益貿易有限公司</t>
+          <t>台灣住友</t>
         </is>
       </c>
     </row>
@@ -2471,22 +2471,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>庫斯蘇力菌</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>禪益苦楝油 94</t>
+          <t>殊立菌</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>禪益貿易有限公司</t>
+          <t>興農</t>
         </is>
       </c>
     </row>
@@ -2498,22 +2498,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>庫斯蘇力菌</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>苦楝精油</t>
+          <t>速利殺</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>百泰生物科技股份有限公司</t>
+          <t>安農</t>
         </is>
       </c>
     </row>
@@ -2525,22 +2525,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>庫斯蘇力菌</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>全方位苦楝油</t>
+          <t>尚賜配</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>優必樂有限公司</t>
+          <t>安農</t>
         </is>
       </c>
     </row>
@@ -2552,22 +2552,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>庫斯蘇力菌</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>青山苦楝油</t>
+          <t>速力寶</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>青山貿易有限公司</t>
+          <t>安農</t>
         </is>
       </c>
     </row>
@@ -2579,22 +2579,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>玉米蚜蟲</t>
+          <t>玉米螟</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>苦楝油</t>
+          <t>庫斯蘇力菌</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>護佑精</t>
+          <t>獨霸</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>名方有限公司</t>
+          <t>嘉農</t>
         </is>
       </c>
     </row>
@@ -2606,20 +2606,2504 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>玉米螟</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>庫斯蘇力菌</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>高招</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>嘉農</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>玉米螟</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>庫斯蘇力菌</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>見招</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>嘉農</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>玉米螟</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>庫斯蘇力菌</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>金太寶</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>台灣住友</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>玉米螟</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>庫斯蘇力菌</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>新大寶</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>台灣住友</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>玉米螟</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>庫斯蘇力菌</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>速力寶</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>福壽實業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>玉米螟</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>庫斯蘇力菌</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>金太寶</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>蘇滅寶</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>臺益工業</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>惠光寶</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>惠光(股)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>舒立旺</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>光華化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>菜寶</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>中華民國農會附設各級農會</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>貴寶</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>聯利農業科技</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>松蘇力菌</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>松樹國際</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>住友福祿寶</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>高招</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>嘉農企業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>大寶</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>速利殺</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>安農股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>大寶天機</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>見達利</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>加倍強</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>臺灣花卉生物技術股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>松蘇力菌</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>松樹國際有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>新大寶</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>蘇滅寶</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>臺益工業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>力寶</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>生力化學工業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>菜寶</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>中華民國農會附設各級農會農化廠</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>嘉農企業股份有限公司的蘇力菌</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>嘉農企業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>惠光寶</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>惠光股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>貴寶</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>聯利農業科技股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>尚賜配</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>安農股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>獨霸</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>嘉農企業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>加倍強</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>優必樂有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>愛吃蟲</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>殊立菌</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>興農股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>舒立旺</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>光華化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>見招</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>嘉農企業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>性費洛蒙</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>一枝春</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>中華民國農會附設各級農會</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>性費洛蒙</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>日夜春</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>中華民國農會附設各級農會</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>斜紋夜蛾</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>苦參鹼</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>綠寶克蟲</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>綠寶生物科技</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>苦參鹼</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>綠寶克蟲</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>綠寶生物科技</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
           <t>玉米蚜蟲</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>苦參鹼</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>綠寶克蟲</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>綠寶生物科技</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>蘇滅寶</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>臺益工業</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>惠光寶</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>惠光(股)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>舒立旺</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>光華化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>菜寶</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>中華民國農會附設各級農會</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>貴寶</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>聯利農業科技</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>松蘇力菌</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>松樹國際</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>住友福祿寶</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>高招</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>嘉農企業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>大寶</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>速利殺</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>安農股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>大寶天機</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>見達利</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>加倍強</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>臺灣花卉生物技術股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>松蘇力菌</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>松樹國際有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>新大寶</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>蘇滅寶</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>臺益工業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>力寶</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>生力化學工業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>菜寶</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>中華民國農會附設各級農會農化廠</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>嘉農企業股份有限公司的蘇力菌</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>嘉農企業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>惠光寶</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>惠光股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>貴寶</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>聯利農業科技股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>尚賜配</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>安農股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>獨霸</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>嘉農企業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>加倍強</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>優必樂有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>愛吃蟲</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>臺灣住友化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>殊立菌</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>興農股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>舒立旺</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>光華化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>玉米穗蟲</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>蘇力菌</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>見招</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>嘉農企業股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>辣椒萃取物、植物油類(大蒜油)</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>踹來汐（Capsialil）</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>威群國際有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>大蒜萃取液</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>歐麥克斯線蟲防制劑</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>六和化工股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>苦楝油</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>驅百蟲苦楝油</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>良農現代化農業科技股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>巨聖 GTS</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>巨聖油脂化學股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>苦楝油 (PARKER NEEM OIL)</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>糧德農業有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>祥好苦楝油</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>地球村生態有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>綠佑精（苦楝油）</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>名方有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>好力富苦楝油</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>達爾文國際生物科技股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>卡放心（苦楝油）</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>台灣科研生物技術有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>源動綠（苦楝油）</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>大益農業科技股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>農友苦楝油</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>農友種苗股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>帕克百寶水溶性苦楝油</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>荷翔國際有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>水溶性苦楝油</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>綠地園生物科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>有夠讚（苦楝油）乳劑</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>環宇新境有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>滿歌頌（苦楝油）乳劑</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>環宇新境有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>屠蟲刀</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>良農現代化農業科技股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>農家順-青薌苦楝油</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>樂田農業有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>金力駭</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>樂田農業有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>季新牌乳化苦楝油</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>季新企業有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>禪益苦楝油 92</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>禪益貿易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>禪益苦楝油 94</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>禪益貿易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>苦楝精油</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>百泰生物科技股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>全方位苦楝油</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>優必樂有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>青山苦楝油</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>青山貿易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>護佑精</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>名方有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>甜玉米</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>玉米蚜蟲</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>苦楝油</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
         <is>
           <t>苦靈</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>松樹國際有限公司</t>
         </is>
